--- a/doc/latencies.xlsx
+++ b/doc/latencies.xlsx
@@ -11,9 +11,6 @@
     <sheet name="v1.3" sheetId="2" r:id="rId2"/>
     <sheet name="v1.30 concurrent" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -227,7 +224,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.3078254107125488E-2"/>
           <c:y val="2.8963430509524112E-2"/>
-          <c:w val="0.85572998930689281"/>
+          <c:w val="0.85572998930689292"/>
           <c:h val="0.70887533160231664"/>
         </c:manualLayout>
       </c:layout>
@@ -908,8 +905,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83982208"/>
-        <c:axId val="83996672"/>
+        <c:axId val="228659968"/>
+        <c:axId val="228662272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1160,11 +1157,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83999744"/>
-        <c:axId val="83998208"/>
+        <c:axId val="228677888"/>
+        <c:axId val="228676352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83982208"/>
+        <c:axId val="228659968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,14 +1185,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83996672"/>
+        <c:crossAx val="228662272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83996672"/>
+        <c:axId val="228662272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000"/>
@@ -1204,12 +1201,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83982208"/>
+        <c:crossAx val="228659968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83998208"/>
+        <c:axId val="228676352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50000"/>
@@ -1217,19 +1214,19 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83999744"/>
+        <c:crossAx val="228677888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83999744"/>
+        <c:axId val="228677888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83998208"/>
+        <c:crossAx val="228676352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1252,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1291,7 +1288,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.3078254107125488E-2"/>
           <c:y val="2.8963430509524112E-2"/>
-          <c:w val="0.85572998930689304"/>
+          <c:w val="0.85572998930689315"/>
           <c:h val="0.70887533160231664"/>
         </c:manualLayout>
       </c:layout>
@@ -1972,8 +1969,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57701504"/>
-        <c:axId val="57703424"/>
+        <c:axId val="229333632"/>
+        <c:axId val="229348096"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2224,11 +2221,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57714944"/>
-        <c:axId val="57713408"/>
+        <c:axId val="229363712"/>
+        <c:axId val="229349632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57701504"/>
+        <c:axId val="229333632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,14 +2249,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57703424"/>
+        <c:crossAx val="229348096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57703424"/>
+        <c:axId val="229348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000"/>
@@ -2268,12 +2265,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57701504"/>
+        <c:crossAx val="229333632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57713408"/>
+        <c:axId val="229349632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50000"/>
@@ -2281,19 +2278,19 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57714944"/>
+        <c:crossAx val="229363712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="57714944"/>
+        <c:axId val="229363712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="57713408"/>
+        <c:crossAx val="229349632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2319,7 +2316,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2349,7 +2346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2359,7 +2355,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.3078254107125488E-2"/>
           <c:y val="2.8963430509524112E-2"/>
-          <c:w val="0.85572998930689326"/>
+          <c:w val="0.85572998930689348"/>
           <c:h val="0.70887533160231664"/>
         </c:manualLayout>
       </c:layout>
@@ -3040,8 +3036,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="222403584"/>
-        <c:axId val="57574912"/>
+        <c:axId val="229249408"/>
+        <c:axId val="229251328"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3292,11 +3288,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57578240"/>
-        <c:axId val="57576448"/>
+        <c:axId val="229266944"/>
+        <c:axId val="229265408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222403584"/>
+        <c:axId val="229249408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,17 +3313,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57574912"/>
+        <c:crossAx val="229251328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57574912"/>
+        <c:axId val="229251328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000"/>
@@ -3336,12 +3331,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222403584"/>
+        <c:crossAx val="229249408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57576448"/>
+        <c:axId val="229265408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50000"/>
@@ -3349,19 +3344,19 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57578240"/>
+        <c:crossAx val="229266944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="57578240"/>
+        <c:axId val="229266944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="57576448"/>
+        <c:crossAx val="229265408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3370,7 +3365,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -3387,7 +3381,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3397,16 +3391,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3496,660 +3490,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="WPM$NQS4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="B7">
-            <v>15576.6</v>
-          </cell>
-          <cell r="D7">
-            <v>43019</v>
-          </cell>
-          <cell r="F7">
-            <v>14843.4</v>
-          </cell>
-          <cell r="H7">
-            <v>28113.9</v>
-          </cell>
-          <cell r="M7">
-            <v>1017.9994136781503</v>
-          </cell>
-          <cell r="N7">
-            <v>308.12789797352644</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>29667.3</v>
-          </cell>
-          <cell r="D8">
-            <v>53429</v>
-          </cell>
-          <cell r="F8">
-            <v>29113.5</v>
-          </cell>
-          <cell r="H8">
-            <v>33029.199999999997</v>
-          </cell>
-          <cell r="M8">
-            <v>229.12958961265502</v>
-          </cell>
-          <cell r="N8">
-            <v>351.36470347248002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>18380.7</v>
-          </cell>
-          <cell r="D9">
-            <v>52778.9</v>
-          </cell>
-          <cell r="F9">
-            <v>15093</v>
-          </cell>
-          <cell r="H9">
-            <v>33704</v>
-          </cell>
-          <cell r="M9">
-            <v>462.6906577943551</v>
-          </cell>
-          <cell r="N9">
-            <v>2965.4255086091016</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>18450.900000000001</v>
-          </cell>
-          <cell r="D10">
-            <v>51804</v>
-          </cell>
-          <cell r="F10">
-            <v>16130.4</v>
-          </cell>
-          <cell r="H10">
-            <v>38334.6</v>
-          </cell>
-          <cell r="M10">
-            <v>3142.8806477693583</v>
-          </cell>
-          <cell r="N10">
-            <v>5495.7978115698479</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>17885.400000000001</v>
-          </cell>
-          <cell r="D11">
-            <v>108587</v>
-          </cell>
-          <cell r="F11">
-            <v>14718.6</v>
-          </cell>
-          <cell r="H11">
-            <v>117692</v>
-          </cell>
-          <cell r="M11">
-            <v>8227.5956132217743</v>
-          </cell>
-          <cell r="N11">
-            <v>12830.66902911332</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>12842.7</v>
-          </cell>
-          <cell r="D12">
-            <v>100396</v>
-          </cell>
-          <cell r="F12">
-            <v>12792</v>
-          </cell>
-          <cell r="H12">
-            <v>182586</v>
-          </cell>
-          <cell r="M12">
-            <v>6833.669227416889</v>
-          </cell>
-          <cell r="N12">
-            <v>16497.114856072862</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>8544.9</v>
-          </cell>
-          <cell r="D13">
-            <v>131168</v>
-          </cell>
-          <cell r="F13">
-            <v>5686.2</v>
-          </cell>
-          <cell r="H13">
-            <v>353663</v>
-          </cell>
-          <cell r="M13">
-            <v>9750.8600223664598</v>
-          </cell>
-          <cell r="N13">
-            <v>24401.355611125218</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>7047.3</v>
-          </cell>
-          <cell r="D14">
-            <v>98560.6</v>
-          </cell>
-          <cell r="F14">
-            <v>6727.5</v>
-          </cell>
-          <cell r="H14">
-            <v>356601</v>
-          </cell>
-          <cell r="M14">
-            <v>10259.921468071048</v>
-          </cell>
-          <cell r="N14">
-            <v>24492.297940007877</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>6388.2</v>
-          </cell>
-          <cell r="D15">
-            <v>144572</v>
-          </cell>
-          <cell r="F15">
-            <v>5417.1</v>
-          </cell>
-          <cell r="H15">
-            <v>148332</v>
-          </cell>
-          <cell r="M15">
-            <v>12900.051754166036</v>
-          </cell>
-          <cell r="N15">
-            <v>14183.377372323328</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>6341.4</v>
-          </cell>
-          <cell r="D16">
-            <v>162347</v>
-          </cell>
-          <cell r="F16">
-            <v>2897.7</v>
-          </cell>
-          <cell r="H16">
-            <v>152311</v>
-          </cell>
-          <cell r="M16">
-            <v>13539.725199800374</v>
-          </cell>
-          <cell r="N16">
-            <v>15266.237874141863</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>6212.7</v>
-          </cell>
-          <cell r="D17">
-            <v>137618</v>
-          </cell>
-          <cell r="F17">
-            <v>6150.3</v>
-          </cell>
-          <cell r="H17">
-            <v>169217</v>
-          </cell>
-          <cell r="M17">
-            <v>11690.107187589925</v>
-          </cell>
-          <cell r="N17">
-            <v>16659.047080475561</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>6505.2</v>
-          </cell>
-          <cell r="D18">
-            <v>217886</v>
-          </cell>
-          <cell r="F18">
-            <v>5038.8</v>
-          </cell>
-          <cell r="H18">
-            <v>188037</v>
-          </cell>
-          <cell r="M18">
-            <v>17092.238320338605</v>
-          </cell>
-          <cell r="N18">
-            <v>16672.531632689195</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>6134.7</v>
-          </cell>
-          <cell r="D19">
-            <v>292260</v>
-          </cell>
-          <cell r="F19">
-            <v>5647.2</v>
-          </cell>
-          <cell r="H19">
-            <v>257003</v>
-          </cell>
-          <cell r="M19">
-            <v>21784.215702568887</v>
-          </cell>
-          <cell r="N19">
-            <v>22103.689832048913</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>7101.9</v>
-          </cell>
-          <cell r="D20">
-            <v>296512</v>
-          </cell>
-          <cell r="F20">
-            <v>6247.8</v>
-          </cell>
-          <cell r="H20">
-            <v>240247</v>
-          </cell>
-          <cell r="M20">
-            <v>22959.214111300647</v>
-          </cell>
-          <cell r="N20">
-            <v>20089.238848738645</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>6520.8</v>
-          </cell>
-          <cell r="D21">
-            <v>305301</v>
-          </cell>
-          <cell r="F21">
-            <v>4570.8</v>
-          </cell>
-          <cell r="H21">
-            <v>274795</v>
-          </cell>
-          <cell r="M21">
-            <v>22180.128427445976</v>
-          </cell>
-          <cell r="N21">
-            <v>23275.356302006956</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>5865.6</v>
-          </cell>
-          <cell r="D22">
-            <v>200354</v>
-          </cell>
-          <cell r="F22">
-            <v>5276.7</v>
-          </cell>
-          <cell r="H22">
-            <v>381806</v>
-          </cell>
-          <cell r="M22">
-            <v>15942.81744160509</v>
-          </cell>
-          <cell r="N22">
-            <v>27597.66487711314</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>6177.6</v>
-          </cell>
-          <cell r="D23">
-            <v>191759</v>
-          </cell>
-          <cell r="F23">
-            <v>4921.8</v>
-          </cell>
-          <cell r="H23">
-            <v>261455</v>
-          </cell>
-          <cell r="M23">
-            <v>15671.009636229075</v>
-          </cell>
-          <cell r="N23">
-            <v>22903.355137741255</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>7004.4</v>
-          </cell>
-          <cell r="D24">
-            <v>196689</v>
-          </cell>
-          <cell r="F24">
-            <v>4344.6000000000004</v>
-          </cell>
-          <cell r="H24">
-            <v>233818</v>
-          </cell>
-          <cell r="M24">
-            <v>17381.64660229579</v>
-          </cell>
-          <cell r="N24">
-            <v>21391.242923668604</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>6064.5</v>
-          </cell>
-          <cell r="D25">
-            <v>200519</v>
-          </cell>
-          <cell r="F25">
-            <v>3014.7</v>
-          </cell>
-          <cell r="H25">
-            <v>240143</v>
-          </cell>
-          <cell r="M25">
-            <v>16099.026571172932</v>
-          </cell>
-          <cell r="N25">
-            <v>22945.102370611959</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>6403.8</v>
-          </cell>
-          <cell r="D26">
-            <v>159943</v>
-          </cell>
-          <cell r="F26">
-            <v>5580.9</v>
-          </cell>
-          <cell r="H26">
-            <v>226194</v>
-          </cell>
-          <cell r="M26">
-            <v>14241.980295461075</v>
-          </cell>
-          <cell r="N26">
-            <v>22015.295456346157</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>6750.9</v>
-          </cell>
-          <cell r="D27">
-            <v>211668</v>
-          </cell>
-          <cell r="F27">
-            <v>4629.3</v>
-          </cell>
-          <cell r="H27">
-            <v>239218</v>
-          </cell>
-          <cell r="M27">
-            <v>16617.770238961148</v>
-          </cell>
-          <cell r="N27">
-            <v>20991.018278025524</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>7027.8</v>
-          </cell>
-          <cell r="D28">
-            <v>209272</v>
-          </cell>
-          <cell r="F28">
-            <v>4134</v>
-          </cell>
-          <cell r="H28">
-            <v>280383</v>
-          </cell>
-          <cell r="M28">
-            <v>16509.247033137166</v>
-          </cell>
-          <cell r="N28">
-            <v>24554.624794716252</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>6875.7</v>
-          </cell>
-          <cell r="D29">
-            <v>197327</v>
-          </cell>
-          <cell r="F29">
-            <v>5198.7</v>
-          </cell>
-          <cell r="H29">
-            <v>217768</v>
-          </cell>
-          <cell r="M29">
-            <v>15609.760761712199</v>
-          </cell>
-          <cell r="N29">
-            <v>19605.911730151071</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>6828.9</v>
-          </cell>
-          <cell r="D30">
-            <v>180101</v>
-          </cell>
-          <cell r="F30">
-            <v>4270.5</v>
-          </cell>
-          <cell r="H30">
-            <v>259285</v>
-          </cell>
-          <cell r="M30">
-            <v>13395.981441174208</v>
-          </cell>
-          <cell r="N30">
-            <v>22939.222478658339</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>5850</v>
-          </cell>
-          <cell r="D31">
-            <v>190397</v>
-          </cell>
-          <cell r="F31">
-            <v>3139.5</v>
-          </cell>
-          <cell r="H31">
-            <v>186430</v>
-          </cell>
-          <cell r="M31">
-            <v>14318.869682574583</v>
-          </cell>
-          <cell r="N31">
-            <v>18892.876832575395</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>5541.9</v>
-          </cell>
-          <cell r="D32">
-            <v>172115</v>
-          </cell>
-          <cell r="F32">
-            <v>3724.5</v>
-          </cell>
-          <cell r="H32">
-            <v>192452</v>
-          </cell>
-          <cell r="M32">
-            <v>14410.811593089356</v>
-          </cell>
-          <cell r="N32">
-            <v>18097.268652331051</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>6438.9</v>
-          </cell>
-          <cell r="D33">
-            <v>191363</v>
-          </cell>
-          <cell r="F33">
-            <v>4832.1000000000004</v>
-          </cell>
-          <cell r="H33">
-            <v>156130</v>
-          </cell>
-          <cell r="M33">
-            <v>15704.740616403009</v>
-          </cell>
-          <cell r="N33">
-            <v>17557.612168827793</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>5631.6</v>
-          </cell>
-          <cell r="D34">
-            <v>183527</v>
-          </cell>
-          <cell r="F34">
-            <v>4040.4</v>
-          </cell>
-          <cell r="H34">
-            <v>167407</v>
-          </cell>
-          <cell r="M34">
-            <v>15060.853248201911</v>
-          </cell>
-          <cell r="N34">
-            <v>17646.849329043904</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>6509.1</v>
-          </cell>
-          <cell r="D35">
-            <v>241962</v>
-          </cell>
-          <cell r="F35">
-            <v>5982.6</v>
-          </cell>
-          <cell r="H35">
-            <v>122195</v>
-          </cell>
-          <cell r="M35">
-            <v>20950.251027147093</v>
-          </cell>
-          <cell r="N35">
-            <v>14101.744872367235</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>6126.9</v>
-          </cell>
-          <cell r="D36">
-            <v>228804</v>
-          </cell>
-          <cell r="F36">
-            <v>4485</v>
-          </cell>
-          <cell r="H36">
-            <v>157239</v>
-          </cell>
-          <cell r="M36">
-            <v>17115.385494996022</v>
-          </cell>
-          <cell r="N36">
-            <v>14732.814076109442</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>6380.4</v>
-          </cell>
-          <cell r="D37">
-            <v>171277</v>
-          </cell>
-          <cell r="F37">
-            <v>3619.2</v>
-          </cell>
-          <cell r="H37">
-            <v>215492</v>
-          </cell>
-          <cell r="M37">
-            <v>14326.670339233051</v>
-          </cell>
-          <cell r="N37">
-            <v>21920.629195892874</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>6462.3</v>
-          </cell>
-          <cell r="D38">
-            <v>268235</v>
-          </cell>
-          <cell r="F38">
-            <v>4808.7</v>
-          </cell>
-          <cell r="H38">
-            <v>205591</v>
-          </cell>
-          <cell r="M38">
-            <v>19509.305105353091</v>
-          </cell>
-          <cell r="N38">
-            <v>17666.370570329924</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4440,7 +3780,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5999,8 +5339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
